--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H2">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I2">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J2">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N2">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O2">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P2">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q2">
-        <v>12.32093648330311</v>
+        <v>46.49804679855833</v>
       </c>
       <c r="R2">
-        <v>110.888428349728</v>
+        <v>418.482421187025</v>
       </c>
       <c r="S2">
-        <v>0.01489701891297517</v>
+        <v>0.07201838713672563</v>
       </c>
       <c r="T2">
-        <v>0.01489701891297517</v>
+        <v>0.07201838713672562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H3">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I3">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J3">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>29.178763</v>
       </c>
       <c r="N3">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O3">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P3">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q3">
-        <v>154.2638696078563</v>
+        <v>222.350198219825</v>
       </c>
       <c r="R3">
-        <v>1388.374826470707</v>
+        <v>2001.151783978425</v>
       </c>
       <c r="S3">
-        <v>0.1865176227676553</v>
+        <v>0.3443865658421491</v>
       </c>
       <c r="T3">
-        <v>0.1865176227676553</v>
+        <v>0.3443865658421491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H4">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I4">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J4">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N4">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O4">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P4">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q4">
-        <v>2.081906843353778</v>
+        <v>1.1174676071</v>
       </c>
       <c r="R4">
-        <v>18.737161590184</v>
+        <v>10.0572084639</v>
       </c>
       <c r="S4">
-        <v>0.002517195479623078</v>
+        <v>0.001730786996054497</v>
       </c>
       <c r="T4">
-        <v>0.002517195479623079</v>
+        <v>0.001730786996054497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H5">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I5">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J5">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N5">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O5">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P5">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q5">
-        <v>114.5960499497209</v>
+        <v>114.4782457436583</v>
       </c>
       <c r="R5">
-        <v>1031.364449547488</v>
+        <v>1030.304211692925</v>
       </c>
       <c r="S5">
-        <v>0.1385559876691754</v>
+        <v>0.1773093535824739</v>
       </c>
       <c r="T5">
-        <v>0.1385559876691754</v>
+        <v>0.1773093535824739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H6">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I6">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J6">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N6">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q6">
-        <v>51.54184248407888</v>
+        <v>40.30287752768333</v>
       </c>
       <c r="R6">
-        <v>463.8765823567099</v>
+        <v>362.72589774915</v>
       </c>
       <c r="S6">
-        <v>0.06231829888380903</v>
+        <v>0.06242301422008829</v>
       </c>
       <c r="T6">
-        <v>0.06231829888380903</v>
+        <v>0.06242301422008829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H7">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I7">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J7">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N7">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O7">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P7">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q7">
-        <v>2.236235408198111</v>
+        <v>0.38297978095</v>
       </c>
       <c r="R7">
-        <v>20.126118673783</v>
+        <v>3.44681802855</v>
       </c>
       <c r="S7">
-        <v>0.002703791324217677</v>
+        <v>0.0005931773059089149</v>
       </c>
       <c r="T7">
-        <v>0.002703791324217677</v>
+        <v>0.0005931773059089148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.107504</v>
       </c>
       <c r="I8">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J8">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N8">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O8">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P8">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q8">
-        <v>7.074968165091556</v>
+        <v>18.52431603890311</v>
       </c>
       <c r="R8">
-        <v>63.67471348582401</v>
+        <v>166.718844350128</v>
       </c>
       <c r="S8">
-        <v>0.008554214584816252</v>
+        <v>0.02869134201942744</v>
       </c>
       <c r="T8">
-        <v>0.008554214584816254</v>
+        <v>0.02869134201942744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.107504</v>
       </c>
       <c r="I9">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J9">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>29.178763</v>
       </c>
       <c r="N9">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O9">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P9">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q9">
-        <v>88.58190024585066</v>
+        <v>88.58190024585068</v>
       </c>
       <c r="R9">
-        <v>797.2371022126561</v>
+        <v>797.2371022126562</v>
       </c>
       <c r="S9">
-        <v>0.1071027551434909</v>
+        <v>0.1371998615952677</v>
       </c>
       <c r="T9">
-        <v>0.1071027551434909</v>
+        <v>0.1371998615952677</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>9.107504</v>
       </c>
       <c r="I10">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J10">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N10">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O10">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P10">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q10">
-        <v>1.195479309496889</v>
+        <v>0.4451869388586667</v>
       </c>
       <c r="R10">
-        <v>10.759313785472</v>
+        <v>4.006682449728</v>
       </c>
       <c r="S10">
-        <v>0.001445432164006354</v>
+        <v>0.0006895267117312834</v>
       </c>
       <c r="T10">
-        <v>0.001445432164006354</v>
+        <v>0.0006895267117312836</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.107504</v>
       </c>
       <c r="I11">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J11">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N11">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O11">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P11">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q11">
-        <v>65.80371600310045</v>
+        <v>45.60688781018844</v>
       </c>
       <c r="R11">
-        <v>592.2334440279041</v>
+        <v>410.461990291696</v>
       </c>
       <c r="S11">
-        <v>0.07956206926078006</v>
+        <v>0.07063811769653087</v>
       </c>
       <c r="T11">
-        <v>0.07956206926078008</v>
+        <v>0.07063811769653089</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.107504</v>
       </c>
       <c r="I12">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J12">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N12">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P12">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q12">
-        <v>29.59652419596444</v>
+        <v>16.05622799242311</v>
       </c>
       <c r="R12">
-        <v>266.36871776368</v>
+        <v>144.506051931808</v>
       </c>
       <c r="S12">
-        <v>0.03578461599108974</v>
+        <v>0.0248686498278829</v>
       </c>
       <c r="T12">
-        <v>0.03578461599108974</v>
+        <v>0.0248686498278829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.107504</v>
       </c>
       <c r="I13">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J13">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N13">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O13">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P13">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q13">
-        <v>1.284098359251555</v>
+        <v>0.1525749786773333</v>
       </c>
       <c r="R13">
-        <v>11.556885233264</v>
+        <v>1.373174808096</v>
       </c>
       <c r="S13">
-        <v>0.001552579835941371</v>
+        <v>0.0002363153860927883</v>
       </c>
       <c r="T13">
-        <v>0.001552579835941372</v>
+        <v>0.0002363153860927883</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H14">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I14">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J14">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N14">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O14">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P14">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q14">
-        <v>10.83878665272533</v>
+        <v>5.593856903793223</v>
       </c>
       <c r="R14">
-        <v>97.54907987452802</v>
+        <v>50.344712134139</v>
       </c>
       <c r="S14">
-        <v>0.01310497866604251</v>
+        <v>0.008664031713635686</v>
       </c>
       <c r="T14">
-        <v>0.01310497866604252</v>
+        <v>0.008664031713635684</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H15">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I15">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J15">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>29.178763</v>
       </c>
       <c r="N15">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O15">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P15">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q15">
-        <v>135.706662652573</v>
+        <v>26.74940727640034</v>
       </c>
       <c r="R15">
-        <v>1221.359963873157</v>
+        <v>240.744665487603</v>
       </c>
       <c r="S15">
-        <v>0.1640804433081652</v>
+        <v>0.04143075465633267</v>
       </c>
       <c r="T15">
-        <v>0.1640804433081653</v>
+        <v>0.04143075465633266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H16">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I16">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J16">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N16">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O16">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P16">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q16">
-        <v>1.831463390509333</v>
+        <v>0.1344347627293334</v>
       </c>
       <c r="R16">
-        <v>16.483170514584</v>
+        <v>1.209912864564</v>
       </c>
       <c r="S16">
-        <v>0.002214388882193539</v>
+        <v>0.0002082189565686266</v>
       </c>
       <c r="T16">
-        <v>0.002214388882193539</v>
+        <v>0.0002082189565686265</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H17">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I17">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J17">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N17">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O17">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P17">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q17">
-        <v>100.8106922986987</v>
+        <v>13.77208225673589</v>
       </c>
       <c r="R17">
-        <v>907.2962306882881</v>
+        <v>123.948740310623</v>
       </c>
       <c r="S17">
-        <v>0.1218883639112165</v>
+        <v>0.02133085623878694</v>
       </c>
       <c r="T17">
-        <v>0.1218883639112166</v>
+        <v>0.02133085623878694</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H18">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I18">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J18">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N18">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O18">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P18">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q18">
-        <v>45.34160492835667</v>
+        <v>4.848559137928222</v>
       </c>
       <c r="R18">
-        <v>408.07444435521</v>
+        <v>43.63703224135401</v>
       </c>
       <c r="S18">
-        <v>0.05482170507718543</v>
+        <v>0.007509679074550931</v>
       </c>
       <c r="T18">
-        <v>0.05482170507718544</v>
+        <v>0.00750967907455093</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H19">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I19">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J19">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N19">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O19">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P19">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q19">
-        <v>1.967226965870333</v>
+        <v>0.04607363618866667</v>
       </c>
       <c r="R19">
-        <v>17.705042692833</v>
+        <v>0.414662725698</v>
       </c>
       <c r="S19">
-        <v>0.002378538137616349</v>
+        <v>7.136103979178168E-05</v>
       </c>
       <c r="T19">
-        <v>0.00237853813761635</v>
+        <v>7.136103979178167E-05</v>
       </c>
     </row>
   </sheetData>
